--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/21/2018</t>
+    <t xml:space="preserve">Nov/22/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/22/2018</t>
+    <t xml:space="preserve">Nov/27/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/27/2018</t>
+    <t xml:space="preserve">Nov/29/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/29/2018</t>
+    <t xml:space="preserve">Nov/30/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">ORH</t>
   </si>
   <si>
-    <t xml:space="preserve">Variability estimation stMethod</t>
+    <t xml:space="preserve">Variability estimation method</t>
   </si>
   <si>
     <t xml:space="preserve">Jackknife</t>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrGTt</t>
   </si>
   <si>
     <t xml:space="preserve">95% CI's FOMs, treatment difference, each reader</t>
@@ -542,7 +545,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="25.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="24.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="23.71" hidden="0" customWidth="1"/>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1296,7 +1299,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>43</v>
@@ -1675,14 +1678,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.0000233199415316389</v>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>-0.000683891460998864</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.000791682146950474</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.000483637672681172</v>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.000512509147426041</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.00152577624933447</v>
@@ -1741,7 +1744,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1751,10 +1754,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/30/2018</t>
+    <t xml:space="preserve">Dec/04/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec/04/2018</t>
+    <t xml:space="preserve">Mar/21/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">May/23/2019</t>
+    <t xml:space="preserve">May/24/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">May/24/2019</t>
+    <t xml:space="preserve">Jun/21/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/vignettes/ORH.xlsx
+++ b/vignettes/ORH.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun/21/2019</t>
+    <t xml:space="preserve">Jul/23/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>
